--- a/tut06/output/2001EE73.xlsx
+++ b/tut06/output/2001EE73.xlsx
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,9 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
